--- a/DMSNewVSale_2025-12-01_18-11.xlsx
+++ b/DMSNewVSale_2025-12-01_18-11.xlsx
@@ -278,6 +278,15 @@
     <t>63.8400</t>
   </si>
   <si>
+    <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
     <t>DRAMENEX 50MG 20 TABS.</t>
   </si>
   <si>
@@ -720,9 +729,6 @@
   </si>
   <si>
     <t>2.00</t>
-  </si>
-  <si>
-    <t>34.0000</t>
   </si>
   <si>
     <t>17:0</t>
@@ -2162,7 +2168,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2179,7 +2185,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2195,7 +2201,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2228,7 +2234,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2261,7 +2267,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>99</v>
+        <v>15</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2271,14 +2277,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2287,14 +2293,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>32</v>
+        <v>102</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2304,11 +2310,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>11</v>
@@ -2327,7 +2333,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>104</v>
+        <v>32</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2337,11 +2343,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>11</v>
@@ -2353,14 +2359,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2370,11 +2376,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>11</v>
@@ -2386,14 +2392,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>110</v>
+        <v>64</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2403,14 +2409,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>104</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2419,14 +2425,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>42</v>
+        <v>113</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2443,7 +2449,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>15</v>
+        <v>107</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2459,7 +2465,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2476,7 +2482,7 @@
         <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2492,7 +2498,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2509,7 +2515,7 @@
         <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2525,7 +2531,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2542,7 +2548,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2558,7 +2564,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>126</v>
+        <v>11</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2568,14 +2574,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
         <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>64</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2591,7 +2597,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>11</v>
+        <v>129</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2601,14 +2607,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>65</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
         <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>11</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2624,7 +2630,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2638,10 +2644,10 @@
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2650,14 +2656,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2667,11 +2673,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>61</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>15</v>
@@ -2683,14 +2689,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2700,14 +2706,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2723,7 +2729,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>104</v>
+        <v>32</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2756,7 +2762,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>28</v>
+        <v>107</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2770,7 +2776,7 @@
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>56</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>11</v>
@@ -2782,14 +2788,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>144</v>
+        <v>28</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2799,14 +2805,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>69</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2822,7 +2828,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2832,14 +2838,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>69</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
         <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2855,7 +2861,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2872,7 +2878,7 @@
         <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>152</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2881,14 +2887,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>24</v>
+        <v>129</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2898,14 +2904,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>124</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>15</v>
+        <v>155</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2914,14 +2920,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>155</v>
+        <v>24</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2931,14 +2937,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>21</v>
+        <v>135</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>14</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>156</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2954,7 +2960,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>104</v>
+        <v>158</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2964,14 +2970,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>127</v>
+        <v>14</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>11</v>
+        <v>159</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2980,14 +2986,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>159</v>
+        <v>107</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2997,11 +3003,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>160</v>
+        <v>49</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>161</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>11</v>
@@ -3013,31 +3019,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>42</v>
+        <v>162</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>58</v>
+        <v>163</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3046,31 +3052,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>165</v>
+        <v>42</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>166</v>
+        <v>58</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3079,14 +3085,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>11</v>
+        <v>168</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3096,11 +3102,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>147</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>11</v>
@@ -3112,28 +3118,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>11</v>
@@ -3152,13 +3158,13 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>104</v>
+        <v>28</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
@@ -3185,7 +3191,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>28</v>
+        <v>107</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3218,7 +3224,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>179</v>
+        <v>28</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3228,14 +3234,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3244,31 +3250,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>104</v>
+        <v>182</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>123</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>124</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3277,28 +3283,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>11</v>
@@ -3310,28 +3316,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>28</v>
+        <v>113</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>185</v>
+        <v>139</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>186</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>11</v>
@@ -3350,24 +3356,24 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>110</v>
+        <v>28</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>117</v>
+        <v>188</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3376,14 +3382,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3393,7 +3399,7 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>190</v>
+        <v>120</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
@@ -3416,7 +3422,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>11</v>
+        <v>113</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3433,7 +3439,7 @@
         <v>194</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3449,7 +3455,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3463,7 +3469,7 @@
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>163</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>11</v>
@@ -3475,14 +3481,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3492,11 +3498,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>132</v>
+        <v>199</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>198</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>11</v>
@@ -3508,14 +3514,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3525,11 +3531,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>49</v>
+        <v>135</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>127</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>11</v>
@@ -3541,7 +3547,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3562,10 +3568,10 @@
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>201</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>104</v>
+        <v>11</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3574,14 +3580,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3591,14 +3597,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>203</v>
+        <v>49</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
         <v>204</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>11</v>
+        <v>107</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3614,7 +3620,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>206</v>
+        <v>15</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3624,7 +3630,7 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>111</v>
+        <v>206</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
@@ -3647,7 +3653,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>110</v>
+        <v>209</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3657,11 +3663,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>209</v>
+        <v>114</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>11</v>
@@ -3673,14 +3679,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3690,14 +3696,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3713,7 +3719,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>214</v>
+        <v>129</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3723,14 +3729,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>104</v>
+        <v>15</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3739,14 +3745,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>28</v>
+        <v>217</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3763,7 +3769,7 @@
         <v>219</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>11</v>
+        <v>107</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3779,7 +3785,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3796,7 +3802,7 @@
         <v>222</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3812,13 +3818,13 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
@@ -3829,7 +3835,7 @@
         <v>225</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3845,7 +3851,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>227</v>
+        <v>28</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3855,11 +3861,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>170</v>
+        <v>227</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>171</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>11</v>
@@ -3871,14 +3877,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>104</v>
+        <v>230</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3888,11 +3894,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>229</v>
+        <v>173</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>222</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>11</v>
@@ -3904,14 +3910,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>28</v>
+        <v>107</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3921,14 +3927,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>104</v>
+        <v>11</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3944,7 +3950,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>110</v>
+        <v>28</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3954,14 +3960,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>170</v>
+        <v>234</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>171</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>11</v>
+        <v>107</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3970,14 +3976,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>11</v>
+        <v>113</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3987,11 +3993,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>83</v>
+        <v>173</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>84</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>11</v>
@@ -4003,14 +4009,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4020,14 +4026,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>236</v>
+        <v>83</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>237</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>238</v>
+        <v>11</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4036,7 +4042,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4053,14 +4059,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
+        <v>91</v>
+      </c>
+      <c t="s" r="Q86" s="12">
         <v>240</v>
-      </c>
-      <c t="s" r="Q86" s="12">
-        <v>24</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4076,7 +4082,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4086,14 +4092,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4102,14 +4108,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>245</v>
+        <v>11</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4119,14 +4125,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>136</v>
+        <v>244</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4135,14 +4141,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4152,14 +4158,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>161</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4185,14 +4191,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>136</v>
+        <v>163</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>102</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>104</v>
+        <v>11</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4208,7 +4214,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>28</v>
+        <v>252</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4218,14 +4224,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>252</v>
+        <v>139</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>253</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>11</v>
+        <v>107</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4234,7 +4240,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4251,11 +4257,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>229</v>
+        <v>254</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>11</v>
@@ -4267,14 +4273,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>245</v>
+        <v>28</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4284,14 +4290,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>160</v>
+        <v>232</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>75</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>104</v>
+        <v>11</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4300,14 +4306,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>104</v>
+        <v>247</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4317,51 +4323,84 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>257</v>
+        <v>163</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>246</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="95" ht="25.5" customHeight="1">
-      <c r="N95" s="13">
-        <v>5069.2799999999997</v>
-      </c>
-      <c r="O95" s="13"/>
-      <c r="P95" s="13"/>
-      <c r="Q95" s="13"/>
-    </row>
-    <row r="96" ht="16.5" customHeight="1">
-      <c t="s" r="A96" s="14">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="A95" s="7">
+        <v>89</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c t="s" r="C95" s="8">
         <v>258</v>
       </c>
-      <c r="B96" s="14"/>
-      <c r="C96" s="14"/>
-      <c r="D96" s="14"/>
-      <c r="E96" s="14"/>
-      <c r="F96" s="14"/>
-      <c t="s" r="G96" s="15">
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c t="s" r="H95" s="9">
+        <v>107</v>
+      </c>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c t="s" r="L95" s="10">
+        <v>36</v>
+      </c>
+      <c r="M95" s="10"/>
+      <c t="s" r="N95" s="8">
         <v>259</v>
       </c>
-      <c r="H96" s="15"/>
-      <c r="I96" s="15"/>
-      <c r="J96" s="16"/>
-      <c t="s" r="K96" s="17">
+      <c r="O95" s="8"/>
+      <c t="s" r="P95" s="11">
+        <v>248</v>
+      </c>
+      <c t="s" r="Q95" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="96" ht="26.25" customHeight="1">
+      <c r="N96" s="13">
+        <v>5103.2799999999997</v>
+      </c>
+      <c r="O96" s="13"/>
+      <c r="P96" s="13"/>
+      <c r="Q96" s="13"/>
+    </row>
+    <row r="97" ht="16.5" customHeight="1">
+      <c t="s" r="A97" s="14">
         <v>260</v>
       </c>
-      <c r="L96" s="17"/>
-      <c r="M96" s="17"/>
-      <c r="N96" s="17"/>
-      <c r="O96" s="17"/>
-      <c r="P96" s="17"/>
-      <c r="Q96" s="17"/>
+      <c r="B97" s="14"/>
+      <c r="C97" s="14"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="14"/>
+      <c r="F97" s="14"/>
+      <c t="s" r="G97" s="15">
+        <v>261</v>
+      </c>
+      <c r="H97" s="15"/>
+      <c r="I97" s="15"/>
+      <c r="J97" s="16"/>
+      <c t="s" r="K97" s="17">
+        <v>262</v>
+      </c>
+      <c r="L97" s="17"/>
+      <c r="M97" s="17"/>
+      <c r="N97" s="17"/>
+      <c r="O97" s="17"/>
+      <c r="P97" s="17"/>
+      <c r="Q97" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="452">
+  <mergeCells count="457">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4810,10 +4849,15 @@
     <mergeCell ref="H94:K94"/>
     <mergeCell ref="L94:M94"/>
     <mergeCell ref="N94:O94"/>
-    <mergeCell ref="N95:Q95"/>
-    <mergeCell ref="A96:F96"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="K96:Q96"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="N96:Q96"/>
+    <mergeCell ref="A97:F97"/>
+    <mergeCell ref="G97:I97"/>
+    <mergeCell ref="K97:Q97"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
